--- a/AD010_内部定義/BB030_テーブル設計書/BB030020_株市場.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030020_株市場.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794B80C4-CE1B-40EC-98A4-0C931B574B7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BD1F03-63C0-4E28-843E-953121C1EA52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20472" yWindow="9144" windowWidth="21348" windowHeight="15672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24012" yWindow="5664" windowWidth="21444" windowHeight="15288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -1506,7 +1506,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
